--- a/forecasts_20200418.xlsx
+++ b/forecasts_20200418.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">2360</t>
   </si>
   <si>
-    <t xml:space="preserve">2850</t>
+    <t xml:space="preserve">2828</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -95,31 +95,34 @@
     <t xml:space="preserve">2714</t>
   </si>
   <si>
-    <t xml:space="preserve">2438</t>
+    <t xml:space="preserve">2433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">3157</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3776</t>
+    <t xml:space="preserve">2702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3768</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -128,10 +131,10 @@
     <t xml:space="preserve">3314</t>
   </si>
   <si>
-    <t xml:space="preserve">2798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4050</t>
+    <t xml:space="preserve">2829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4043</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -140,10 +143,10 @@
     <t xml:space="preserve">3492</t>
   </si>
   <si>
-    <t xml:space="preserve">2902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4323</t>
+    <t xml:space="preserve">2959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4339</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -152,10 +155,10 @@
     <t xml:space="preserve">3755</t>
   </si>
   <si>
-    <t xml:space="preserve">3054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4711</t>
+    <t xml:space="preserve">3122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4706</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -164,10 +167,10 @@
     <t xml:space="preserve">3912</t>
   </si>
   <si>
-    <t xml:space="preserve">3206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4988</t>
+    <t xml:space="preserve">3232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4952</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -176,10 +179,10 @@
     <t xml:space="preserve">4257</t>
   </si>
   <si>
-    <t xml:space="preserve">3412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5496</t>
+    <t xml:space="preserve">3495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5531</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -188,10 +191,10 @@
     <t xml:space="preserve">4443</t>
   </si>
   <si>
-    <t xml:space="preserve">3517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5771</t>
+    <t xml:space="preserve">3617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5870</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -200,10 +203,10 @@
     <t xml:space="preserve">4747</t>
   </si>
   <si>
-    <t xml:space="preserve">3706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6259</t>
+    <t xml:space="preserve">3819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6357</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -212,10 +215,10 @@
     <t xml:space="preserve">5024</t>
   </si>
   <si>
-    <t xml:space="preserve">3924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6761</t>
+    <t xml:space="preserve">4014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6813</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -224,10 +227,10 @@
     <t xml:space="preserve">5312</t>
   </si>
   <si>
-    <t xml:space="preserve">4139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7187</t>
+    <t xml:space="preserve">4189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7176</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -236,10 +239,10 @@
     <t xml:space="preserve">5557</t>
   </si>
   <si>
-    <t xml:space="preserve">4276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7639</t>
+    <t xml:space="preserve">4343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7658</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
         <v>36648</v>
       </c>
       <c r="F2" t="n">
-        <v>43120</v>
+        <v>42844</v>
       </c>
       <c r="G2" t="n">
         <v>2091</v>
@@ -668,7 +671,7 @@
         <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>6521</v>
+        <v>6245</v>
       </c>
       <c r="J2" t="n">
         <v>0.0571</v>
@@ -677,7 +680,7 @@
         <v>0.0013</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1782</v>
+        <v>0.1706</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -695,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="S2" t="n">
         <v>0.0707</v>
@@ -704,7 +707,7 @@
         <v>0.0054</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2142</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="3">
@@ -721,28 +724,28 @@
         <v>41351</v>
       </c>
       <c r="E3" t="n">
-        <v>37697</v>
+        <v>37631</v>
       </c>
       <c r="F3" t="n">
-        <v>47105</v>
+        <v>47062</v>
       </c>
       <c r="G3" t="n">
         <v>2661</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>5579</v>
+        <v>5700</v>
       </c>
       <c r="J3" t="n">
         <v>0.0688</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1442</v>
+        <v>0.1473</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -757,19 +760,19 @@
         <v>202</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="S3" t="n">
         <v>0.0802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1696</v>
+        <v>0.1717</v>
       </c>
     </row>
     <row r="4">
@@ -786,28 +789,28 @@
         <v>44612</v>
       </c>
       <c r="E4" t="n">
-        <v>39787</v>
+        <v>39545</v>
       </c>
       <c r="F4" t="n">
-        <v>51617</v>
+        <v>51455</v>
       </c>
       <c r="G4" t="n">
         <v>3260</v>
       </c>
       <c r="H4" t="n">
-        <v>492</v>
+        <v>215</v>
       </c>
       <c r="I4" t="n">
-        <v>6250</v>
+        <v>6562</v>
       </c>
       <c r="J4" t="n">
         <v>0.0788</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0119</v>
+        <v>0.0052</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1511</v>
+        <v>0.1587</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -822,19 +825,19 @@
         <v>250</v>
       </c>
       <c r="Q4" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="R4" t="n">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="S4" t="n">
         <v>0.092</v>
       </c>
       <c r="T4" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1783</v>
+        <v>0.1864</v>
       </c>
     </row>
     <row r="5">
@@ -851,10 +854,10 @@
         <v>47099</v>
       </c>
       <c r="E5" t="n">
-        <v>41196</v>
+        <v>41186</v>
       </c>
       <c r="F5" t="n">
-        <v>54965</v>
+        <v>54860</v>
       </c>
       <c r="G5" t="n">
         <v>2488</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6108</v>
+        <v>5725</v>
       </c>
       <c r="J5" t="n">
         <v>0.0558</v>
@@ -872,16 +875,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1369</v>
+        <v>0.1283</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="n">
         <v>193</v>
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="S5" t="n">
         <v>0.065</v>
@@ -899,12 +902,12 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1598</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43944</v>
@@ -916,10 +919,10 @@
         <v>49109</v>
       </c>
       <c r="E6" t="n">
-        <v>42444</v>
+        <v>42851</v>
       </c>
       <c r="F6" t="n">
-        <v>58382</v>
+        <v>58294</v>
       </c>
       <c r="G6" t="n">
         <v>2010</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5608</v>
+        <v>5485</v>
       </c>
       <c r="J6" t="n">
         <v>0.0427</v>
@@ -937,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1191</v>
+        <v>0.1165</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" t="n">
         <v>157</v>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="S6" t="n">
         <v>0.0497</v>
@@ -964,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.141</v>
+        <v>0.1377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43945</v>
@@ -981,10 +984,10 @@
         <v>51377</v>
       </c>
       <c r="E7" t="n">
-        <v>43803</v>
+        <v>44538</v>
       </c>
       <c r="F7" t="n">
-        <v>61763</v>
+        <v>61957</v>
       </c>
       <c r="G7" t="n">
         <v>2268</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6095</v>
+        <v>5980</v>
       </c>
       <c r="J7" t="n">
         <v>0.0462</v>
@@ -1002,16 +1005,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1241</v>
+        <v>0.1218</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="n">
         <v>178</v>
@@ -1020,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S7" t="n">
         <v>0.0538</v>
@@ -1029,12 +1032,12 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1454</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43946</v>
@@ -1046,10 +1049,10 @@
         <v>54697</v>
       </c>
       <c r="E8" t="n">
-        <v>45774</v>
+        <v>46651</v>
       </c>
       <c r="F8" t="n">
-        <v>66513</v>
+        <v>66452</v>
       </c>
       <c r="G8" t="n">
         <v>3320</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7394</v>
+        <v>7693</v>
       </c>
       <c r="J8" t="n">
         <v>0.0646</v>
@@ -1067,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1439</v>
+        <v>0.1497</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" t="n">
         <v>263</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="S8" t="n">
         <v>0.0753</v>
@@ -1094,12 +1097,12 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1706</v>
+        <v>0.1765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43947</v>
@@ -1111,10 +1114,10 @@
         <v>56663</v>
       </c>
       <c r="E9" t="n">
-        <v>47734</v>
+        <v>48066</v>
       </c>
       <c r="F9" t="n">
-        <v>69874</v>
+        <v>69439</v>
       </c>
       <c r="G9" t="n">
         <v>1966</v>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6286</v>
+        <v>5969</v>
       </c>
       <c r="J9" t="n">
         <v>0.036</v>
@@ -1132,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1149</v>
+        <v>0.1091</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" t="n">
         <v>157</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="S9" t="n">
         <v>0.0418</v>
@@ -1159,12 +1162,12 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1365</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43948</v>
@@ -1176,60 +1179,60 @@
         <v>60947</v>
       </c>
       <c r="E10" t="n">
-        <v>50365</v>
+        <v>51415</v>
       </c>
       <c r="F10" t="n">
-        <v>75960</v>
+        <v>76385</v>
       </c>
       <c r="G10" t="n">
         <v>4283</v>
       </c>
       <c r="H10" t="n">
-        <v>342</v>
+        <v>703</v>
       </c>
       <c r="I10" t="n">
-        <v>8704</v>
+        <v>9275</v>
       </c>
       <c r="J10" t="n">
         <v>0.0756</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006</v>
+        <v>0.0124</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1536</v>
+        <v>0.1637</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" t="n">
         <v>345</v>
       </c>
       <c r="Q10" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="R10" t="n">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="S10" t="n">
         <v>0.0882</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0072</v>
+        <v>0.0141</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1818</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43949</v>
@@ -1241,10 +1244,10 @@
         <v>63232</v>
       </c>
       <c r="E11" t="n">
-        <v>51698</v>
+        <v>52966</v>
       </c>
       <c r="F11" t="n">
-        <v>79228</v>
+        <v>80401</v>
       </c>
       <c r="G11" t="n">
         <v>2285</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7352</v>
+        <v>6968</v>
       </c>
       <c r="J11" t="n">
         <v>0.0375</v>
@@ -1262,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1206</v>
+        <v>0.1143</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
         <v>186</v>
@@ -1280,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="S11" t="n">
         <v>0.0436</v>
@@ -1289,12 +1292,12 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1428</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43950</v>
@@ -1306,10 +1309,10 @@
         <v>66951</v>
       </c>
       <c r="E12" t="n">
-        <v>54083</v>
+        <v>55507</v>
       </c>
       <c r="F12" t="n">
-        <v>84972</v>
+        <v>86120</v>
       </c>
       <c r="G12" t="n">
         <v>3719</v>
@@ -1318,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9286</v>
+        <v>8648</v>
       </c>
       <c r="J12" t="n">
         <v>0.0588</v>
@@ -1327,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1469</v>
+        <v>0.1368</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>304</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>782</v>
+        <v>718</v>
       </c>
       <c r="S12" t="n">
         <v>0.0685</v>
@@ -1354,12 +1357,12 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.176</v>
+        <v>0.1615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43951</v>
@@ -1371,10 +1374,10 @@
         <v>70303</v>
       </c>
       <c r="E13" t="n">
-        <v>56817</v>
+        <v>57932</v>
       </c>
       <c r="F13" t="n">
-        <v>90824</v>
+        <v>91423</v>
       </c>
       <c r="G13" t="n">
         <v>3352</v>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>8614</v>
+        <v>8493</v>
       </c>
       <c r="J13" t="n">
         <v>0.0501</v>
@@ -1392,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1287</v>
+        <v>0.1269</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" t="n">
         <v>277</v>
@@ -1410,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="S13" t="n">
         <v>0.0583</v>
@@ -1419,12 +1422,12 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1509</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43952</v>
@@ -1436,10 +1439,10 @@
         <v>73768</v>
       </c>
       <c r="E14" t="n">
-        <v>59488</v>
+        <v>60106</v>
       </c>
       <c r="F14" t="n">
-        <v>95735</v>
+        <v>95601</v>
       </c>
       <c r="G14" t="n">
         <v>3465</v>
@@ -1448,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9545</v>
+        <v>8830</v>
       </c>
       <c r="J14" t="n">
         <v>0.0493</v>
@@ -1457,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1358</v>
+        <v>0.1256</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" t="n">
         <v>288</v>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>805</v>
+        <v>745</v>
       </c>
       <c r="S14" t="n">
         <v>0.0574</v>
@@ -1484,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1603</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43953</v>
@@ -1501,10 +1504,10 @@
         <v>76688</v>
       </c>
       <c r="E15" t="n">
-        <v>61189</v>
+        <v>62011</v>
       </c>
       <c r="F15" t="n">
-        <v>100896</v>
+        <v>101119</v>
       </c>
       <c r="G15" t="n">
         <v>2919</v>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8964</v>
+        <v>8864</v>
       </c>
       <c r="J15" t="n">
         <v>0.0396</v>
@@ -1522,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1215</v>
+        <v>0.1202</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>245</v>
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="S15" t="n">
         <v>0.046</v>
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1429</v>
+        <v>0.1433</v>
       </c>
     </row>
   </sheetData>
